--- a/Data/categoria-1.xlsx
+++ b/Data/categoria-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1f3a42771cab8a77/Formación/Python/Repositorios/Case_Analysis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_FF40094614E431D99D9AA8FF4A6205D95E7F9896" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B550DC7-2568-4C96-BF6C-544244B0EE65}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_FF40094614E431D99D9AA8FF4A6205D95E7F9896" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85313606-603A-446B-ADE3-A8B019C5D22C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="26">
   <si>
     <t>Fecha</t>
   </si>
@@ -186,10 +186,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -392,7 +388,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -445,9 +443,7 @@
       <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="E2" s="5"/>
       <c r="F2" s="6">
         <v>200</v>
       </c>
